--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2024448-40B8-2F40-81C3-A095E582B8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB541F98-5803-7842-B7CE-A6BEF97736FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>attraction</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Despicable Me Minion Mayhem</t>
-  </si>
-  <si>
-    <t>28.475272,</t>
   </si>
   <si>
     <t>Hollywood Rip Ride Rockit</t>
@@ -71,13 +68,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF202122"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -86,16 +76,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="21.6"/>
       <color rgb="FF000000"/>
-      <name val="Georgia"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,14 +116,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -443,55 +444,56 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="1">
+        <v>28.475272</v>
       </c>
       <c r="C2" s="2">
         <v>-81.468102999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6">
+        <v>28.474900000000002</v>
+      </c>
+      <c r="C3" s="6">
+        <v>-81.468299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>28.474900000000002</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-81.468299999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>28.475477999999999</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>-81.468857999999997</v>
       </c>
     </row>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB541F98-5803-7842-B7CE-A6BEF97736FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD4C55D-E5A7-594E-BF44-D891C8A27075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>attraction</t>
   </si>
@@ -53,13 +53,28 @@
   </si>
   <si>
     <t>Universal Music Plaza Stage</t>
+  </si>
+  <si>
+    <t>Race Through New York Starring Jimmy Fallon</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Escape from Gringotts</t>
+  </si>
+  <si>
+    <t>Hogwarts Express</t>
+  </si>
+  <si>
+    <t>Men in Black: Alien Attack</t>
+  </si>
+  <si>
+    <t>The Simpsons Ride</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -68,30 +83,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF202122"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="21.6"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,21 +107,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,60 +427,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2664BA-BA32-0B49-A294-AEF34C553EC2}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>28.475272</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>-81.468102999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>28.474900000000002</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>-81.468299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>28.475477999999999</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>-81.468857999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>28.479399999999998</v>
+      </c>
+      <c r="C5">
+        <v>-81.470299999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>28.475683</v>
+      </c>
+      <c r="C6">
+        <v>-81.469449999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>28.480277999999998</v>
+      </c>
+      <c r="C7">
+        <v>-81.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>28.480858000000001</v>
+      </c>
+      <c r="C8">
+        <v>-81.467399999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>28.479438999999999</v>
+      </c>
+      <c r="C9">
+        <v>-81.467364000000003</v>
       </c>
     </row>
   </sheetData>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD4C55D-E5A7-594E-BF44-D891C8A27075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44662B-C4CA-1447-9F44-9BDBB7F2FBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>attraction</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Hollywood Rip Ride Rockit</t>
-  </si>
-  <si>
-    <t>Universal Music Plaza Stage</t>
   </si>
   <si>
     <t>Race Through New York Starring Jimmy Fallon</t>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2664BA-BA32-0B49-A294-AEF34C553EC2}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,24 +470,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>28.475477999999999</v>
+        <v>28.479399999999998</v>
       </c>
       <c r="C4">
-        <v>-81.468857999999997</v>
+        <v>-81.470299999999995</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>28.479399999999998</v>
+        <v>28.475683</v>
       </c>
       <c r="C5">
-        <v>-81.470299999999995</v>
+        <v>-81.469449999999995</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -498,21 +495,21 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>28.475683</v>
+        <v>28.480277999999998</v>
       </c>
       <c r="C6">
-        <v>-81.469449999999995</v>
+        <v>-81.47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>28.480277999999998</v>
+        <v>28.480858000000001</v>
       </c>
       <c r="C7">
-        <v>-81.47</v>
+        <v>-81.467399999999998</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -520,20 +517,9 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>28.480858000000001</v>
+        <v>28.479438999999999</v>
       </c>
       <c r="C8">
-        <v>-81.467399999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>28.479438999999999</v>
-      </c>
-      <c r="C9">
         <v>-81.467364000000003</v>
       </c>
     </row>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E44662B-C4CA-1447-9F44-9BDBB7F2FBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965CE00-6607-0E4B-898E-599A7B9D55FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>attraction</t>
   </si>
@@ -65,23 +65,25 @@
   </si>
   <si>
     <t>The Simpsons Ride</t>
+  </si>
+  <si>
+    <t>Revenge of the Mummy</t>
+  </si>
+  <si>
+    <t>Transformers: The Ride 3D</t>
+  </si>
+  <si>
+    <t>E.T. Adventure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF202122"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,9 +109,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2664BA-BA32-0B49-A294-AEF34C553EC2}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,8 +447,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -521,6 +522,39 @@
       </c>
       <c r="C8">
         <v>-81.467364000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>28.476900000000001</v>
+      </c>
+      <c r="C9">
+        <v>-81.469886000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>28.476361000000001</v>
+      </c>
+      <c r="C10">
+        <v>-81.468363999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>28.477599999999999</v>
+      </c>
+      <c r="C11">
+        <v>-81.466499999999996</v>
       </c>
     </row>
   </sheetData>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C965CE00-6607-0E4B-898E-599A7B9D55FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867F762E-CBE0-2044-ABF2-FBF4F1969FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>attraction</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>E.T. Adventure</t>
+  </si>
+  <si>
+    <t>Fast &amp; Furious - Supercharged</t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2664BA-BA32-0B49-A294-AEF34C553EC2}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,6 +560,17 @@
         <v>-81.466499999999996</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>28.478000000000002</v>
+      </c>
+      <c r="C12">
+        <v>-81.4696</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="geo:28.475272,-81.468103" xr:uid="{339F6CBF-6760-2744-8B0B-D299797C780B}"/>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867F762E-CBE0-2044-ABF2-FBF4F1969FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F7929-C375-CD47-95C3-C3FF222ACB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>attraction</t>
   </si>
@@ -77,6 +77,30 @@
   </si>
   <si>
     <t>Fast &amp; Furious - Supercharged</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>Illumination's Minion Land</t>
+  </si>
+  <si>
+    <t>Production Central</t>
+  </si>
+  <si>
+    <t>The Wizarding World of Harry Potter</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>World Expo</t>
+  </si>
+  <si>
+    <t>Wood Woodpecker's Kidzone</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
   </si>
 </sst>
 </file>
@@ -428,152 +452,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2664BA-BA32-0B49-A294-AEF34C553EC2}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
         <v>28.475272</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-81.468102999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
         <v>28.474900000000002</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-81.468299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
         <v>28.479399999999998</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-81.470299999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
         <v>28.475683</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-81.469449999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
         <v>28.480277999999998</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-81.47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
         <v>28.480858000000001</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-81.467399999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
         <v>28.479438999999999</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-81.467364000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
         <v>28.476900000000001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-81.469886000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
         <v>28.476361000000001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-81.468363999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
         <v>28.477599999999999</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-81.466499999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
         <v>28.478000000000002</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-81.4696</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="geo:28.475272,-81.468103" xr:uid="{339F6CBF-6760-2744-8B0B-D299797C780B}"/>
+    <hyperlink ref="D2" r:id="rId1" display="geo:28.475272,-81.468103" xr:uid="{339F6CBF-6760-2744-8B0B-D299797C780B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F7929-C375-CD47-95C3-C3FF222ACB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4677B74-13FB-A346-AC4A-DC37BE7B0C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -58,21 +58,12 @@
     <t>Harry Potter and the Escape from Gringotts</t>
   </si>
   <si>
-    <t>Hogwarts Express</t>
-  </si>
-  <si>
-    <t>Men in Black: Alien Attack</t>
-  </si>
-  <si>
     <t>The Simpsons Ride</t>
   </si>
   <si>
     <t>Revenge of the Mummy</t>
   </si>
   <si>
-    <t>Transformers: The Ride 3D</t>
-  </si>
-  <si>
     <t>E.T. Adventure</t>
   </si>
   <si>
@@ -101,19 +92,34 @@
   </si>
   <si>
     <t>San Francisco</t>
+  </si>
+  <si>
+    <t>TRANSFORMERS: The Ride-3D</t>
+  </si>
+  <si>
+    <t>MEN IN BLACK Alien Attack</t>
+  </si>
+  <si>
+    <t>Hogwarts Express - King's Cross Station</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2664BA-BA32-0B49-A294-AEF34C553EC2}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G5" sqref="G5:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,12 +471,12 @@
     <col min="2" max="2" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -478,12 +485,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>28.475272</v>
@@ -492,12 +499,12 @@
         <v>-81.468102999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>28.474900000000002</v>
@@ -506,12 +513,12 @@
         <v>-81.468299999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>28.479399999999998</v>
@@ -520,12 +527,12 @@
         <v>-81.470299999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>28.475683</v>
@@ -534,12 +541,12 @@
         <v>-81.469449999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>28.480277999999998</v>
@@ -548,12 +555,12 @@
         <v>-81.47</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>28.480858000000001</v>
@@ -562,12 +569,12 @@
         <v>-81.467399999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>28.479438999999999</v>
@@ -576,12 +583,12 @@
         <v>-81.467364000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>28.476900000000001</v>
@@ -589,13 +596,14 @@
       <c r="D9">
         <v>-81.469886000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>28.476361000000001</v>
@@ -603,13 +611,14 @@
       <c r="D10">
         <v>-81.468363999999994</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11">
         <v>28.477599999999999</v>
@@ -617,13 +626,14 @@
       <c r="D11">
         <v>-81.466499999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>28.478000000000002</v>
@@ -631,6 +641,16 @@
       <c r="D12">
         <v>-81.4696</v>
       </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4677B74-13FB-A346-AC4A-DC37BE7B0C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D8E3A-FC51-2442-97E1-2F652A64E94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>MEN IN BLACK Alien Attack</t>
   </si>
   <si>
-    <t>Hogwarts Express - King's Cross Station</t>
+    <t>Hogwarts Express - King\'s Cross Station</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:P26"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D8E3A-FC51-2442-97E1-2F652A64E94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85455F6-8B56-C44D-8E31-B865E5592C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>MEN IN BLACK Alien Attack</t>
   </si>
   <si>
-    <t>Hogwarts Express - King\'s Cross Station</t>
+    <t>Hogwarts Express</t>
   </si>
 </sst>
 </file>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85455F6-8B56-C44D-8E31-B865E5592C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB56088-C353-F246-96B8-A23E7F4047F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>Revenge of the Mummy</t>
   </si>
   <si>
-    <t>E.T. Adventure</t>
-  </si>
-  <si>
     <t>Fast &amp; Furious - Supercharged</t>
   </si>
   <si>
@@ -94,13 +91,16 @@
     <t>San Francisco</t>
   </si>
   <si>
-    <t>TRANSFORMERS: The Ride-3D</t>
-  </si>
-  <si>
     <t>MEN IN BLACK Alien Attack</t>
   </si>
   <si>
     <t>Hogwarts Express</t>
+  </si>
+  <si>
+    <t>ET Adventure</t>
+  </si>
+  <si>
+    <t>TRANSFORMERS - The Ride-3D</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -490,7 +490,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>28.475272</v>
@@ -504,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>28.474900000000002</v>
@@ -515,10 +515,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>28.479399999999998</v>
@@ -532,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>28.475683</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>28.480277999999998</v>
@@ -557,10 +557,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>28.480858000000001</v>
@@ -574,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>28.479438999999999</v>
@@ -588,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>28.476900000000001</v>
@@ -600,10 +600,10 @@
     </row>
     <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>28.476361000000001</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>28.477599999999999</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>28.478000000000002</v>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB56088-C353-F246-96B8-A23E7F4047F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3AA68-C188-4142-802D-6DA0DAB8EF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>attraction</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>TRANSFORMERS - The Ride-3D</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>black</t>
   </si>
 </sst>
 </file>
@@ -462,7 +468,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,6 +490,9 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -498,6 +507,9 @@
       <c r="D2">
         <v>-81.468102999999999</v>
       </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -512,6 +524,9 @@
       <c r="D3">
         <v>-81.468299999999999</v>
       </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -526,6 +541,9 @@
       <c r="D4">
         <v>-81.470299999999995</v>
       </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -540,6 +558,9 @@
       <c r="D5">
         <v>-81.469449999999995</v>
       </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -554,6 +575,9 @@
       <c r="D6">
         <v>-81.47</v>
       </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -568,6 +592,9 @@
       <c r="D7">
         <v>-81.467399999999998</v>
       </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -582,6 +609,9 @@
       <c r="D8">
         <v>-81.467364000000003</v>
       </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -596,6 +626,9 @@
       <c r="D9">
         <v>-81.469886000000002</v>
       </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -611,6 +644,9 @@
       <c r="D10">
         <v>-81.468363999999994</v>
       </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -626,6 +662,9 @@
       <c r="D11">
         <v>-81.466499999999996</v>
       </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -640,6 +679,9 @@
       </c>
       <c r="D12">
         <v>-81.4696</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
       </c>
       <c r="H12" s="1"/>
     </row>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC3AA68-C188-4142-802D-6DA0DAB8EF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB950E0F-0357-364D-ABFF-40F8688CFB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -106,7 +106,7 @@
     <t>color</t>
   </si>
   <si>
-    <t>black</t>
+    <t>(0,255,00)</t>
   </si>
 </sst>
 </file>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB950E0F-0357-364D-ABFF-40F8688CFB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFBAE03-86B9-F846-B791-EDAFC85922B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -106,14 +106,14 @@
     <t>color</t>
   </si>
   <si>
-    <t>(0,255,00)</t>
+    <t>#000000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +126,12 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,9 +154,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +475,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +514,7 @@
       <c r="D2">
         <v>-81.468102999999999</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -524,7 +531,7 @@
       <c r="D3">
         <v>-81.468299999999999</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -541,7 +548,7 @@
       <c r="D4">
         <v>-81.470299999999995</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -558,7 +565,7 @@
       <c r="D5">
         <v>-81.469449999999995</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -575,7 +582,7 @@
       <c r="D6">
         <v>-81.47</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -592,7 +599,7 @@
       <c r="D7">
         <v>-81.467399999999998</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -609,7 +616,7 @@
       <c r="D8">
         <v>-81.467364000000003</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -626,7 +633,7 @@
       <c r="D9">
         <v>-81.469886000000002</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="1"/>
@@ -644,7 +651,7 @@
       <c r="D10">
         <v>-81.468363999999994</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="1"/>
@@ -662,7 +669,7 @@
       <c r="D11">
         <v>-81.466499999999996</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="1"/>
@@ -680,7 +687,7 @@
       <c r="D12">
         <v>-81.4696</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="1"/>
@@ -695,6 +702,7 @@
       <c r="H15" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="geo:28.475272,-81.468103" xr:uid="{339F6CBF-6760-2744-8B0B-D299797C780B}"/>
   </hyperlinks>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFBAE03-86B9-F846-B791-EDAFC85922B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFC7FB7-1A72-B04C-BBC3-94580D117E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,13 +100,13 @@
     <t>ET Adventure</t>
   </si>
   <si>
-    <t>TRANSFORMERS - The Ride-3D</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
     <t>#000000</t>
+  </si>
+  <si>
+    <t>TRANSFORMERS - The Ride 3D</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -515,7 +515,7 @@
         <v>-81.468102999999999</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -532,7 +532,7 @@
         <v>-81.468299999999999</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -549,7 +549,7 @@
         <v>-81.470299999999995</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -566,7 +566,7 @@
         <v>-81.469449999999995</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>-81.47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -600,7 +600,7 @@
         <v>-81.467399999999998</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>-81.467364000000003</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -634,13 +634,13 @@
         <v>-81.469886000000002</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -652,7 +652,7 @@
         <v>-81.468363999999994</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -670,7 +670,7 @@
         <v>-81.466499999999996</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H11" s="1"/>
     </row>
@@ -688,7 +688,7 @@
         <v>-81.4696</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H12" s="1"/>
     </row>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFC7FB7-1A72-B04C-BBC3-94580D117E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F68843-55FE-FA47-B66F-138D1C1DF187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>attraction</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>TRANSFORMERS - The Ride 3D</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +637,7 @@
         <v>-81.469886000000002</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1"/>
     </row>

--- a/locations.xlsx
+++ b/locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/drintoul/Documents/projects/streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F68843-55FE-FA47-B66F-138D1C1DF187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD035CA-CDB1-DF46-A270-1370CB4D5461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{D2C54F52-1A5C-DF4B-AC94-ECE0E1A3B3F8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>attraction</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>TRANSFORMERS - The Ride 3D</t>
-  </si>
-  <si>
-    <t>#FF0000</t>
   </si>
 </sst>
 </file>
@@ -478,7 +475,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +634,7 @@
         <v>-81.469886000000002</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1"/>
     </row>
